--- a/Calendars.xlsx
+++ b/Calendars.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="109">
   <si>
     <t>专业实验 为民楼203</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,190 +265,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>08-09错题精研、写作分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-11错题精研、写作分析</t>
+  </si>
+  <si>
+    <t>10-11错题精研、写作分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012英语真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录：背单词顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>早餐、到自习室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>08-09错题精研、写作分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-11错题精研、写作分析</t>
-  </si>
-  <si>
-    <t>10-11错题精研、写作分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012英语真题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附录：背单词顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FHI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
+    <t>早餐、到自习室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预习报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +517,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -537,6 +549,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,22 +632,34 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,7 +946,7 @@
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B21" sqref="B21:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1024,18 +1085,18 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="11" t="s">
         <v>16</v>
       </c>
@@ -1062,18 +1123,18 @@
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="B4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="11" t="s">
         <v>15</v>
       </c>
@@ -1100,18 +1161,18 @@
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="B5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1138,32 +1199,32 @@
       <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="11" t="s">
@@ -1192,16 +1253,18 @@
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="B7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="11" t="s">
         <v>30</v>
       </c>
@@ -1224,20 +1287,22 @@
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
     </row>
-    <row r="8" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="11" t="s">
         <v>31</v>
       </c>
@@ -1264,16 +1329,16 @@
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="11" t="s">
         <v>25</v>
       </c>
@@ -1300,16 +1365,16 @@
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="11" t="s">
         <v>26</v>
       </c>
@@ -1333,22 +1398,22 @@
       <c r="AD10" s="9"/>
     </row>
     <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="17" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="9"/>
@@ -1371,18 +1436,18 @@
       <c r="AD11" s="9"/>
     </row>
     <row r="12" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1403,18 +1468,18 @@
       <c r="AD12" s="9"/>
     </row>
     <row r="13" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1435,18 +1500,18 @@
       <c r="AD13" s="9"/>
     </row>
     <row r="14" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1470,35 +1535,35 @@
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>19</v>
@@ -1526,16 +1591,16 @@
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="11" t="s">
         <v>27</v>
       </c>
@@ -1562,16 +1627,16 @@
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="11" t="s">
         <v>32</v>
       </c>
@@ -1598,16 +1663,16 @@
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="11" t="s">
         <v>33</v>
       </c>
@@ -1634,16 +1699,16 @@
       <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="11" t="s">
         <v>23</v>
       </c>
@@ -1670,16 +1735,16 @@
       <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="11" t="s">
         <v>18</v>
       </c>
@@ -1706,28 +1771,28 @@
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1754,16 +1819,16 @@
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="11" t="s">
         <v>21</v>
       </c>
@@ -1790,18 +1855,18 @@
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="11" t="s">
         <v>20</v>
       </c>
@@ -1828,20 +1893,20 @@
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="11" t="s">
         <v>36</v>
       </c>
@@ -1868,16 +1933,16 @@
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="11" t="s">
         <v>41</v>
       </c>
@@ -1904,20 +1969,20 @@
       <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="11" t="s">
         <v>42</v>
       </c>
@@ -1944,16 +2009,16 @@
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="11" t="s">
         <v>43</v>
       </c>
@@ -1983,17 +2048,17 @@
       <c r="B28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
@@ -2020,18 +2085,18 @@
       <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="11" t="s">
         <v>38</v>
       </c>
@@ -2058,18 +2123,18 @@
       <c r="A30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="11" t="s">
         <v>44</v>
       </c>
@@ -2096,18 +2161,18 @@
       <c r="A31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="11" t="s">
         <v>45</v>
       </c>
@@ -2134,16 +2199,16 @@
       <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="11" t="s">
         <v>39</v>
       </c>
@@ -2170,18 +2235,18 @@
       <c r="A33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="11" t="s">
         <v>46</v>
       </c>
@@ -2208,16 +2273,16 @@
       <c r="A34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="11" t="s">
         <v>47</v>
       </c>
@@ -2244,18 +2309,18 @@
       <c r="A35" s="7">
         <v>1</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="8">
         <v>1</v>
       </c>
@@ -2279,141 +2344,149 @@
       <c r="AD35" s="9"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
+      <c r="C37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U37" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y37" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z37" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37" s="16" t="s">
+      <c r="B38" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="R37" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="S37" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="T37" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="U37" s="16" t="s">
+      <c r="C38" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="V37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="W37" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="X37" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y37" s="16" t="s">
+      <c r="N38" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="Z37" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B31:K32"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B11:K14"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="E15:E23"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="K15:K23"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:K25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D26:K27"/>
+    <mergeCell ref="B33:K34"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C23:C28"/>
     <mergeCell ref="B29:K29"/>
@@ -2429,25 +2502,17 @@
     <mergeCell ref="J6:J10"/>
     <mergeCell ref="K6:K10"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:K25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D26:K27"/>
     <mergeCell ref="I21:I23"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B31:K32"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B11:K14"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="B4:K4"/>
     <mergeCell ref="J21:J23"/>
-    <mergeCell ref="B33:K34"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="E15:E23"/>
-    <mergeCell ref="H15:H23"/>
-    <mergeCell ref="K15:K23"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="J15:J20"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2889,7 +2954,7 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="9"/>
@@ -2925,7 +2990,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2959,7 +3024,7 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2993,7 +3058,7 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3818,34 +3883,34 @@
     <row r="37" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="K37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3853,34 +3918,34 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U37" s="1" t="s">
+      <c r="V37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="Z37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -4319,7 +4384,7 @@
       <c r="AE10" s="1"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1"/>
@@ -4354,7 +4419,7 @@
       <c r="AE11" s="1"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4387,7 +4452,7 @@
       <c r="AE12" s="1"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4420,7 +4485,7 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5221,34 +5286,34 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="K37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -5256,34 +5321,34 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U37" s="1" t="s">
+      <c r="V37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="Z37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -5734,7 +5799,7 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1"/>
@@ -5770,7 +5835,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5804,7 +5869,7 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5838,7 +5903,7 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -6662,34 +6727,34 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="K37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -6697,34 +6762,34 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U37" s="1" t="s">
+      <c r="V37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="Z37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -6732,7 +6797,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -7968,31 +8033,31 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -8000,34 +8065,34 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="X37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -8035,7 +8100,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -9306,31 +9371,31 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -9338,34 +9403,34 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="X37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -9373,10 +9438,10 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE37" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="AE37" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
